--- a/Discharge/Station1_2021-07-13_1030.xlsx
+++ b/Discharge/Station1_2021-07-13_1030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{4D10ECD4-30AC-4683-86F0-5D959D1B0AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8426ED9A-FE6B-4563-8435-B047B1EDE379}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{4D10ECD4-30AC-4683-86F0-5D959D1B0AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76CF1CE1-E142-462E-801B-F133ECF9B5B7}"/>
   <bookViews>
-    <workbookView xWindow="36345" yWindow="360" windowWidth="22260" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="8720" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>x</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -372,18 +378,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G1" sqref="G1:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +408,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>40</v>
       </c>
@@ -418,8 +430,16 @@
         <f>SUM(E2:E14)</f>
         <v>1.3445499999999997E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>(D2-0)*B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G11)</f>
+        <v>0.10119999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>45</v>
       </c>
@@ -437,8 +457,12 @@
         <f>(D3-D2)*(B3/100)*C3</f>
         <v>1.4499999999999997E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>(D3-D2)*B3/100</f>
+        <v>1.4499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>55</v>
       </c>
@@ -456,8 +480,12 @@
         <f>(D4-D3)*(B4/100)*C4</f>
         <v>3.3300000000000027E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" ref="G4:G11" si="0">(D4-D3)*B4/100</f>
+        <v>1.8500000000000016E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>65</v>
       </c>
@@ -468,15 +496,19 @@
         <v>0.15</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D3:D8" si="0">(A5/100+(A6/100-A5/100)/2)</f>
+        <f t="shared" ref="D5:D8" si="1">(A5/100+(A6/100-A5/100)/2)</f>
         <v>0.7</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E4:E7" si="1">(D5-D4)*(B5/100)*C5</f>
+        <f t="shared" ref="E5:E7" si="2">(D5-D4)*(B5/100)*C5</f>
         <v>3.2999999999999956E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999971E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>75</v>
       </c>
@@ -487,15 +519,19 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="E6">
         <f>(D6-D5)*(B6/100)*C6</f>
         <v>2.9400000000000029E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>85</v>
       </c>
@@ -506,15 +542,19 @@
         <v>0.1</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>1.5749999999999991E-3</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1.5749999999999991E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.574999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>90</v>
       </c>
@@ -525,17 +565,37 @@
         <v>0.09</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91999999999999993</v>
       </c>
       <c r="E8">
         <f>(D8-D7)*(B8/100)*C8</f>
         <v>8.5049999999999861E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>9.4499999999999845E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>94</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
